--- a/evaluation/results/isolation_forest/augmented/none_4/split_3/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/none_4/split_3/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7116104868913857</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="C2">
-        <v>0.8487654320987654</v>
+        <v>0.5625</v>
       </c>
       <c r="D2">
-        <v>0.5149812734082397</v>
+        <v>0.9269662921348315</v>
       </c>
       <c r="E2">
-        <v>0.6410256410256411</v>
+        <v>0.7001414427157001</v>
       </c>
       <c r="F2">
-        <v>0.5589430894308943</v>
+        <v>0.8206233421750663</v>
       </c>
       <c r="G2">
-        <v>0.5228901565013895</v>
+        <v>0.9044272663387211</v>
       </c>
       <c r="H2">
-        <v>0.7116104868913857</v>
+        <v>0.7682777146544348</v>
       </c>
       <c r="I2">
-        <v>275</v>
+        <v>495</v>
       </c>
       <c r="J2">
-        <v>49</v>
+        <v>385</v>
       </c>
       <c r="K2">
-        <v>485</v>
+        <v>149</v>
       </c>
       <c r="L2">
-        <v>259</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6518817204301075</v>
+        <v>0.7925531914893617</v>
       </c>
       <c r="C2">
-        <v>0.9082397003745318</v>
+        <v>0.2790262172284644</v>
       </c>
       <c r="D2">
-        <v>0.758998435054773</v>
+        <v>0.4127423822714681</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8487654320987654</v>
+        <v>0.5625</v>
       </c>
       <c r="C3">
-        <v>0.5149812734082397</v>
+        <v>0.9269662921348315</v>
       </c>
       <c r="D3">
-        <v>0.6410256410256411</v>
+        <v>0.7001414427157001</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7116104868913857</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="C4">
-        <v>0.7116104868913857</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="D4">
-        <v>0.7116104868913857</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="E4">
-        <v>0.7116104868913857</v>
+        <v>0.602996254681648</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7503235762644365</v>
+        <v>0.6775265957446808</v>
       </c>
       <c r="C5">
-        <v>0.7116104868913857</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="D5">
-        <v>0.7000120380402071</v>
+        <v>0.5564419124935841</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7503235762644365</v>
+        <v>0.6775265957446808</v>
       </c>
       <c r="C6">
-        <v>0.7116104868913857</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="D6">
-        <v>0.7000120380402071</v>
+        <v>0.5564419124935841</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>485</v>
+        <v>149</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>275</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
